--- a/sofaplayer/Bundesliga/Borussia M'gladbach_stats.xlsx
+++ b/sofaplayer/Bundesliga/Borussia M'gladbach_stats.xlsx
@@ -1391,16 +1391,16 @@
         <v>259803</v>
       </c>
       <c r="E3" t="n">
-        <v>6.81</v>
+        <v>6.7761904761905</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H3" t="n">
-        <v>1460</v>
+        <v>1539</v>
       </c>
       <c r="I3" t="n">
         <v>2</v>
@@ -1409,22 +1409,22 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>9.7066</v>
+        <v>10.0883</v>
       </c>
       <c r="L3" t="n">
-        <v>146</v>
+        <v>153.9</v>
       </c>
       <c r="M3" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="N3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>24.390243902439</v>
+        <v>22.727272727273</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.46504201</v>
+        <v>0.47867001</v>
       </c>
       <c r="AB3" t="n">
-        <v>511</v>
+        <v>534</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
@@ -1469,22 +1469,22 @@
         <v>10</v>
       </c>
       <c r="AE3" t="n">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="AF3" t="n">
-        <v>69.727891156463</v>
+        <v>69.90291262135899</v>
       </c>
       <c r="AG3" t="n">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="AH3" t="n">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AI3" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="AJ3" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -1508,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="AR3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
@@ -1517,7 +1517,7 @@
         <v>37</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1535,31 +1535,31 @@
         <v>35.714285714286</v>
       </c>
       <c r="BA3" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="BB3" t="n">
-        <v>42.439024390244</v>
+        <v>42.452830188679</v>
       </c>
       <c r="BC3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD3" t="n">
-        <v>25.641025641026</v>
+        <v>26.25</v>
       </c>
       <c r="BE3" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="BF3" t="n">
-        <v>52.755905511811</v>
+        <v>52.272727272727</v>
       </c>
       <c r="BG3" t="n">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="BH3" t="n">
         <v>29</v>
       </c>
       <c r="BI3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BJ3" t="n">
         <v>17</v>
@@ -1577,22 +1577,22 @@
         <v>2</v>
       </c>
       <c r="BO3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>136.2</v>
+        <v>142.3</v>
       </c>
       <c r="BR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="n">
         <v>12</v>
       </c>
       <c r="BT3" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1610,13 +1610,13 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="CA3" t="n">
         <v>4</v>
       </c>
       <c r="CB3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CC3" t="n">
         <v>2</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="CK3" t="n">
         <v>0</v>
@@ -1673,10 +1673,10 @@
         <v>1</v>
       </c>
       <c r="CU3" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="CV3" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="DG3" t="n">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2101,16 +2101,16 @@
         <v>925910</v>
       </c>
       <c r="E5" t="n">
-        <v>6.7421052631579</v>
+        <v>6.74</v>
       </c>
       <c r="F5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>754</v>
+        <v>799</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2122,7 +2122,7 @@
         <v>2.0698</v>
       </c>
       <c r="L5" t="n">
-        <v>251.33333333333</v>
+        <v>266.33333333333</v>
       </c>
       <c r="M5" t="n">
         <v>16</v>
@@ -2167,40 +2167,40 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.26670939</v>
+        <v>1.37612639</v>
       </c>
       <c r="AB5" t="n">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="AF5" t="n">
-        <v>72.448979591837</v>
+        <v>73.913043478261</v>
       </c>
       <c r="AG5" t="n">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="AH5" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI5" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AJ5" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="AK5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL5" t="n">
-        <v>83.333333333333</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AM5" t="n">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>26</v>
       </c>
       <c r="AS5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
         <v>9</v>
@@ -2248,13 +2248,13 @@
         <v>34</v>
       </c>
       <c r="BB5" t="n">
-        <v>44.155844155844</v>
+        <v>43.589743589744</v>
       </c>
       <c r="BC5" t="n">
         <v>13</v>
       </c>
       <c r="BD5" t="n">
-        <v>36.111111111111</v>
+        <v>35.135135135135</v>
       </c>
       <c r="BE5" t="n">
         <v>21</v>
@@ -2263,7 +2263,7 @@
         <v>51.219512195122</v>
       </c>
       <c r="BG5" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="BH5" t="n">
         <v>6</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>128.1</v>
+        <v>134.8</v>
       </c>
       <c r="BR5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS5" t="n">
         <v>3</v>
@@ -2350,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CK5" t="n">
         <v>1</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="CR5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CS5" t="n">
         <v>5</v>
@@ -2383,7 +2383,7 @@
         <v>8</v>
       </c>
       <c r="CU5" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="CV5" t="n">
         <v>20</v>
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA5" t="n">
         <v>3</v>
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="DG5" t="n">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>1048650</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8142857142857</v>
+        <v>6.7954545454545</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" t="n">
-        <v>1793</v>
+        <v>1883</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3185,13 +3185,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.5354</v>
+        <v>1.6089</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
@@ -3233,34 +3233,34 @@
         <v>2</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.72802931</v>
+        <v>2.80093711</v>
       </c>
       <c r="AB8" t="n">
-        <v>1298</v>
+        <v>1346</v>
       </c>
       <c r="AC8" t="n">
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>630</v>
+        <v>655</v>
       </c>
       <c r="AF8" t="n">
-        <v>76.549210206561</v>
+        <v>76.69789227166299</v>
       </c>
       <c r="AG8" t="n">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="AH8" t="n">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AI8" t="n">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="AJ8" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AK8" t="n">
         <v>39</v>
@@ -3269,10 +3269,10 @@
         <v>43.820224719101</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN8" t="n">
-        <v>13.114754098361</v>
+        <v>13.636363636364</v>
       </c>
       <c r="AO8" t="n">
         <v>36</v>
@@ -3284,16 +3284,16 @@
         <v>7</v>
       </c>
       <c r="AR8" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AS8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>2</v>
@@ -3308,40 +3308,40 @@
         <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45.945945945946</v>
+        <v>44.736842105263</v>
       </c>
       <c r="BA8" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="BB8" t="n">
-        <v>52.521008403361</v>
+        <v>51.821862348178</v>
       </c>
       <c r="BC8" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="BD8" t="n">
-        <v>52.709359605911</v>
+        <v>51.904761904762</v>
       </c>
       <c r="BE8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BF8" t="n">
-        <v>51.428571428571</v>
+        <v>51.351351351351</v>
       </c>
       <c r="BG8" t="n">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="BH8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BI8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="BJ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3353,22 +3353,22 @@
         <v>6</v>
       </c>
       <c r="BO8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>143.1</v>
+        <v>149.5</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>2</v>
       </c>
       <c r="BT8" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3386,19 +3386,19 @@
         <v>1</v>
       </c>
       <c r="BZ8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA8" t="n">
         <v>18</v>
       </c>
       <c r="CB8" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CC8" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="CD8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CK8" t="n">
         <v>1</v>
@@ -3440,19 +3440,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CS8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CT8" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="CU8" t="n">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="CV8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3482,10 +3482,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="DG8" t="n">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3523,16 +3523,16 @@
         <v>1019312</v>
       </c>
       <c r="E9" t="n">
-        <v>6.55625</v>
+        <v>6.5352941176471</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>870</v>
+        <v>935</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3541,13 +3541,13 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.7061</v>
+        <v>1.8418</v>
       </c>
       <c r="L9" t="n">
-        <v>870</v>
+        <v>935</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N9" t="n">
         <v>6</v>
@@ -3556,7 +3556,7 @@
         <v>3</v>
       </c>
       <c r="P9" t="n">
-        <v>8.3333333333333</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -3589,40 +3589,40 @@
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.79955804</v>
+        <v>0.81223604</v>
       </c>
       <c r="AB9" t="n">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="AF9" t="n">
+        <v>73.308270676692</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>266</v>
+      </c>
+      <c r="AH9" t="n">
         <v>72</v>
       </c>
-      <c r="AG9" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>68</v>
-      </c>
       <c r="AI9" t="n">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
-        <v>40</v>
+        <v>42.307692307692</v>
       </c>
       <c r="AM9" t="n">
         <v>1</v>
@@ -3631,16 +3631,16 @@
         <v>8.3333333333333</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AQ9" t="n">
         <v>1</v>
       </c>
       <c r="AR9" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="AS9" t="n">
         <v>8</v>
@@ -3649,7 +3649,7 @@
         <v>14</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ9" t="n">
-        <v>35.897435897436</v>
+        <v>38.636363636364</v>
       </c>
       <c r="BA9" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="BB9" t="n">
-        <v>51.655629139073</v>
+        <v>51.219512195122</v>
       </c>
       <c r="BC9" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="BD9" t="n">
-        <v>52.205882352941</v>
+        <v>51.677852348993</v>
       </c>
       <c r="BE9" t="n">
         <v>7</v>
@@ -3685,13 +3685,13 @@
         <v>46.666666666667</v>
       </c>
       <c r="BG9" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="BH9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BI9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BJ9" t="n">
         <v>3</v>
@@ -3709,22 +3709,22 @@
         <v>3</v>
       </c>
       <c r="BO9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP9" t="n">
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>104.9</v>
+        <v>111.1</v>
       </c>
       <c r="BR9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BU9" t="n">
         <v>1</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="BZ9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="CA9" t="n">
         <v>2</v>
       </c>
       <c r="CB9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CC9" t="n">
         <v>23</v>
@@ -3772,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="CJ9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CK9" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="CR9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CS9" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="CT9" t="n">
         <v>12</v>
       </c>
       <c r="CU9" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="CV9" t="n">
         <v>8</v>
@@ -3820,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="DA9" t="n">
         <v>22</v>
       </c>
       <c r="DB9" t="n">
-        <v>53.658536585366</v>
+        <v>52.380952380952</v>
       </c>
       <c r="DC9" t="n">
         <v>0</v>
@@ -3838,10 +3838,10 @@
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="DG9" t="n">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
@@ -4235,16 +4235,16 @@
         <v>1142210</v>
       </c>
       <c r="E11" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4252,12 +4252,14 @@
       <c r="J11" t="n">
         <v>0</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0.1598</v>
+      </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -4299,34 +4301,34 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.00159993</v>
+        <v>0.00549648</v>
       </c>
       <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
         <v>10</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>4</v>
-      </c>
       <c r="AF11" t="n">
-        <v>80</v>
+        <v>83.333333333333</v>
       </c>
       <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -4347,10 +4349,10 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -4362,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
@@ -4380,13 +4382,13 @@
         <v>1</v>
       </c>
       <c r="BB11" t="n">
-        <v>100</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BC11" t="n">
         <v>1</v>
       </c>
       <c r="BD11" t="n">
-        <v>100</v>
+        <v>33.333333333333</v>
       </c>
       <c r="BE11" t="n">
         <v>0</v>
@@ -4395,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
@@ -4419,28 +4421,28 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>6.6</v>
+        <v>12.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW11" t="n">
         <v>0</v>
@@ -4452,13 +4454,13 @@
         <v>0</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CA11" t="n">
         <v>0</v>
       </c>
       <c r="CB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC11" t="n">
         <v>0</v>
@@ -4482,7 +4484,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -4509,13 +4511,13 @@
         <v>0</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT11" t="n">
         <v>2</v>
       </c>
       <c r="CU11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CV11" t="n">
         <v>0</v>
@@ -4548,10 +4550,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="DG11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4589,16 +4591,16 @@
         <v>280453</v>
       </c>
       <c r="E12" t="n">
-        <v>6.7666666666667</v>
+        <v>6.8</v>
       </c>
       <c r="F12" t="n">
+        <v>16</v>
+      </c>
+      <c r="G12" t="n">
         <v>15</v>
       </c>
-      <c r="G12" t="n">
-        <v>14</v>
-      </c>
       <c r="H12" t="n">
-        <v>1110</v>
+        <v>1200</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4655,64 +4657,64 @@
         <v>5</v>
       </c>
       <c r="AA12" t="n">
-        <v>4.04166675</v>
+        <v>4.44545675</v>
       </c>
       <c r="AB12" t="n">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="AC12" t="n">
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="AE12" t="n">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="AF12" t="n">
-        <v>75.324675324675</v>
+        <v>76.504297994269</v>
       </c>
       <c r="AG12" t="n">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="AH12" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="AI12" t="n">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="AJ12" t="n">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="AK12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AL12" t="n">
-        <v>23.076923076923</v>
+        <v>31.25</v>
       </c>
       <c r="AM12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>30</v>
+        <v>29.113924050633</v>
       </c>
       <c r="AO12" t="n">
         <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -4727,22 +4729,22 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ12" t="n">
-        <v>33.333333333333</v>
+        <v>35.135135135135</v>
       </c>
       <c r="BA12" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="BB12" t="n">
-        <v>36.263736263736</v>
+        <v>37.755102040816</v>
       </c>
       <c r="BC12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BD12" t="n">
-        <v>35.135135135135</v>
+        <v>37.037037037037</v>
       </c>
       <c r="BE12" t="n">
         <v>7</v>
@@ -4751,13 +4753,13 @@
         <v>41.176470588235</v>
       </c>
       <c r="BG12" t="n">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="BH12" t="n">
         <v>9</v>
       </c>
       <c r="BI12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ12" t="n">
         <v>6</v>
@@ -4775,22 +4777,22 @@
         <v>2</v>
       </c>
       <c r="BO12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>101.5</v>
+        <v>108.8</v>
       </c>
       <c r="BR12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS12" t="n">
         <v>5</v>
       </c>
       <c r="BT12" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4817,10 +4819,10 @@
         <v>12</v>
       </c>
       <c r="CC12" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="CD12" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4838,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
@@ -4862,16 +4864,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="CS12" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="CT12" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="CU12" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CV12" t="n">
         <v>10</v>
@@ -4886,13 +4888,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="DA12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="DB12" t="n">
-        <v>45.454545454545</v>
+        <v>50</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4904,10 +4906,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="DG12" t="n">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4945,16 +4947,16 @@
         <v>95381</v>
       </c>
       <c r="E13" t="n">
-        <v>6.61875</v>
+        <v>6.6058823529412</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H13" t="n">
-        <v>614</v>
+        <v>679</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4963,13 +4965,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.8464</v>
+        <v>1.9029</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N13" t="n">
         <v>3</v>
@@ -5011,67 +5013,67 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.36193668</v>
+        <v>1.45644578</v>
       </c>
       <c r="AB13" t="n">
-        <v>489</v>
+        <v>533</v>
       </c>
       <c r="AC13" t="n">
         <v>4</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="AF13" t="n">
-        <v>82.436260623229</v>
+        <v>82.03125</v>
       </c>
       <c r="AG13" t="n">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="AH13" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AI13" t="n">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="AJ13" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
-        <v>47.619047619048</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN13" t="n">
-        <v>27.586206896552</v>
+        <v>28.125</v>
       </c>
       <c r="AO13" t="n">
         <v>7</v>
       </c>
       <c r="AP13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT13" t="n">
         <v>10</v>
       </c>
       <c r="AU13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV13" t="n">
         <v>0</v>
@@ -5089,28 +5091,28 @@
         <v>30</v>
       </c>
       <c r="BA13" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="BB13" t="n">
-        <v>49.315068493151</v>
+        <v>48.101265822785</v>
       </c>
       <c r="BC13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BD13" t="n">
-        <v>52.238805970149</v>
+        <v>51.388888888889</v>
       </c>
       <c r="BE13" t="n">
         <v>1</v>
       </c>
       <c r="BF13" t="n">
-        <v>16.666666666667</v>
+        <v>14.285714285714</v>
       </c>
       <c r="BG13" t="n">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="BH13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BI13" t="n">
         <v>12</v>
@@ -5131,28 +5133,28 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>105.9</v>
+        <v>112.3</v>
       </c>
       <c r="BR13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BW13" t="n">
         <v>1</v>
@@ -5164,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CA13" t="n">
         <v>4</v>
@@ -5173,10 +5175,10 @@
         <v>7</v>
       </c>
       <c r="CC13" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="CD13" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5194,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="CK13" t="n">
         <v>1</v>
@@ -5218,19 +5220,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CS13" t="n">
         <v>10</v>
       </c>
       <c r="CT13" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="CU13" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="CV13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5242,13 +5244,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DA13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="DB13" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5260,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="DG13" t="n">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5657,16 +5659,16 @@
         <v>1995809</v>
       </c>
       <c r="E15" t="n">
-        <v>6.44</v>
+        <v>6.55</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5675,16 +5677,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1025</v>
+        <v>0.2015</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -5717,16 +5719,16 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15" t="n">
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.07951907</v>
+        <v>0.08358934</v>
       </c>
       <c r="AB15" t="n">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -5735,22 +5737,22 @@
         <v>1</v>
       </c>
       <c r="AE15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>80.85106382978699</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>14</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
@@ -5804,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="BB15" t="n">
-        <v>33.333333333333</v>
+        <v>30.769230769231</v>
       </c>
       <c r="BC15" t="n">
         <v>3</v>
@@ -5816,10 +5818,10 @@
         <v>1</v>
       </c>
       <c r="BF15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BG15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH15" t="n">
         <v>1</v>
@@ -5849,16 +5851,16 @@
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>32.2</v>
+        <v>39.3</v>
       </c>
       <c r="BR15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BS15" t="n">
         <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
@@ -5879,7 +5881,7 @@
         <v>2</v>
       </c>
       <c r="CA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB15" t="n">
         <v>3</v>
@@ -5939,10 +5941,10 @@
         <v>4</v>
       </c>
       <c r="CU15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5972,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DG15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="DH15" t="n">
         <v>0</v>
@@ -6013,16 +6015,16 @@
         <v>990209</v>
       </c>
       <c r="E16" t="n">
-        <v>6.8157894736842</v>
+        <v>6.8</v>
       </c>
       <c r="F16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H16" t="n">
-        <v>1477</v>
+        <v>1567</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -6031,13 +6033,13 @@
         <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1.1142</v>
+        <v>1.1535</v>
       </c>
       <c r="L16" t="n">
-        <v>738.5</v>
+        <v>783.5</v>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N16" t="n">
         <v>5</v>
@@ -6046,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>15.384615384615</v>
+        <v>13.333333333333</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -6079,40 +6081,40 @@
         <v>1</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.97949021</v>
+        <v>1.07736401</v>
       </c>
       <c r="AB16" t="n">
-        <v>959</v>
+        <v>1031</v>
       </c>
       <c r="AC16" t="n">
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AE16" t="n">
-        <v>642</v>
+        <v>699</v>
       </c>
       <c r="AF16" t="n">
-        <v>86.058981233244</v>
+        <v>86.72456575682401</v>
       </c>
       <c r="AG16" t="n">
-        <v>746</v>
+        <v>806</v>
       </c>
       <c r="AH16" t="n">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="AI16" t="n">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="AJ16" t="n">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
-        <v>42.424242424242</v>
+        <v>47.368421052632</v>
       </c>
       <c r="AM16" t="n">
         <v>2</v>
@@ -6121,22 +6123,22 @@
         <v>50</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AU16" t="n">
         <v>2</v>
@@ -6154,31 +6156,31 @@
         <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>57.142857142857</v>
+        <v>50</v>
       </c>
       <c r="BA16" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>50.955414012739</v>
+        <v>50</v>
       </c>
       <c r="BC16" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD16" t="n">
-        <v>47.58064516129</v>
+        <v>46.875</v>
       </c>
       <c r="BE16" t="n">
         <v>21</v>
       </c>
       <c r="BF16" t="n">
-        <v>63.636363636364</v>
+        <v>61.764705882353</v>
       </c>
       <c r="BG16" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BH16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BI16" t="n">
         <v>21</v>
@@ -6187,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="BK16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL16" t="n">
         <v>0</v>
@@ -6199,28 +6201,28 @@
         <v>6</v>
       </c>
       <c r="BO16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BP16" t="n">
         <v>0</v>
       </c>
       <c r="BQ16" t="n">
-        <v>129.5</v>
+        <v>136</v>
       </c>
       <c r="BR16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS16" t="n">
         <v>3</v>
       </c>
       <c r="BT16" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BU16" t="n">
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BW16" t="n">
         <v>0</v>
@@ -6232,16 +6234,16 @@
         <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CA16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB16" t="n">
         <v>15</v>
       </c>
       <c r="CC16" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CD16" t="n">
         <v>16</v>
@@ -6262,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CK16" t="n">
         <v>1</v>
@@ -6286,19 +6288,19 @@
         <v>0</v>
       </c>
       <c r="CR16" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CS16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CT16" t="n">
         <v>4</v>
       </c>
       <c r="CU16" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="CV16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW16" t="n">
         <v>0</v>
@@ -6310,13 +6312,13 @@
         <v>0</v>
       </c>
       <c r="CZ16" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="DA16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="DB16" t="n">
-        <v>47.058823529412</v>
+        <v>48.571428571429</v>
       </c>
       <c r="DC16" t="n">
         <v>0</v>
@@ -6328,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="DG16" t="n">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="DH16" t="n">
         <v>0</v>
@@ -6369,16 +6371,16 @@
         <v>939880</v>
       </c>
       <c r="E17" t="n">
-        <v>6.9823529411765</v>
+        <v>6.95</v>
       </c>
       <c r="F17" t="n">
+        <v>18</v>
+      </c>
+      <c r="G17" t="n">
         <v>17</v>
       </c>
-      <c r="G17" t="n">
-        <v>16</v>
-      </c>
       <c r="H17" t="n">
-        <v>1333</v>
+        <v>1378</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -6387,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7109</v>
+        <v>0.7863</v>
       </c>
       <c r="L17" t="n">
-        <v>1333</v>
+        <v>1378</v>
       </c>
       <c r="M17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N17" t="n">
         <v>5</v>
@@ -6402,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>7.6923076923077</v>
+        <v>6.6666666666667</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -6435,67 +6437,67 @@
         <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.78552496</v>
+        <v>1.41695296</v>
       </c>
       <c r="AB17" t="n">
-        <v>1037</v>
+        <v>1075</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE17" t="n">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="AF17" t="n">
-        <v>85.69463548830799</v>
+        <v>85.71428571428601</v>
       </c>
       <c r="AG17" t="n">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="AH17" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AI17" t="n">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="AJ17" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AL17" t="n">
-        <v>50.769230769231</v>
+        <v>51.470588235294</v>
       </c>
       <c r="AM17" t="n">
         <v>5</v>
       </c>
       <c r="AN17" t="n">
-        <v>31.25</v>
+        <v>27.777777777778</v>
       </c>
       <c r="AO17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AQ17" t="n">
         <v>3</v>
       </c>
       <c r="AR17" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AS17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT17" t="n">
         <v>58</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV17" t="n">
         <v>1</v>
@@ -6510,28 +6512,28 @@
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>40</v>
+        <v>28.571428571429</v>
       </c>
       <c r="BA17" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="BB17" t="n">
-        <v>62.589928057554</v>
+        <v>61.904761904762</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="BD17" t="n">
-        <v>59.302325581395</v>
+        <v>58.695652173913</v>
       </c>
       <c r="BE17" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BF17" t="n">
-        <v>67.92452830188699</v>
+        <v>67.272727272727</v>
       </c>
       <c r="BG17" t="n">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BH17" t="n">
         <v>15</v>
@@ -6555,28 +6557,28 @@
         <v>2</v>
       </c>
       <c r="BO17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>118.7</v>
+        <v>125.1</v>
       </c>
       <c r="BR17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS17" t="n">
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
       </c>
       <c r="BV17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6588,19 +6590,19 @@
         <v>0</v>
       </c>
       <c r="BZ17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CA17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CB17" t="n">
         <v>7</v>
       </c>
       <c r="CC17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CD17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CE17" t="n">
         <v>1</v>
@@ -6618,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CK17" t="n">
         <v>1</v>
@@ -6642,19 +6644,19 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CS17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CT17" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="CU17" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="CV17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6666,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="DA17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="DB17" t="n">
-        <v>61.904761904762</v>
+        <v>60</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6684,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="DG17" t="n">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7081,16 +7083,16 @@
         <v>1144143</v>
       </c>
       <c r="E19" t="n">
-        <v>6.725</v>
+        <v>6.52</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>165</v>
+        <v>255</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -7099,16 +7101,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0822</v>
+        <v>0.1519</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
@@ -7147,10 +7149,10 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.02398883</v>
+        <v>0.05213973</v>
       </c>
       <c r="AB19" t="n">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -7159,28 +7161,28 @@
         <v>2</v>
       </c>
       <c r="AE19" t="n">
-        <v>101</v>
+        <v>178</v>
       </c>
       <c r="AF19" t="n">
-        <v>87.068965517241</v>
+        <v>90.816326530612</v>
       </c>
       <c r="AG19" t="n">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="AH19" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK19" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AM19" t="n">
         <v>0</v>
@@ -7192,199 +7194,199 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>53.846153846154</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>60</v>
+      </c>
+      <c r="BE19" t="n">
         <v>5</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="BF19" t="n">
+        <v>45.454545454545</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>24</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO19" t="n">
         <v>7</v>
       </c>
-      <c r="AS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>10</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>55.555555555556</v>
-      </c>
-      <c r="BC19" t="n">
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>32.6</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>3</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>5</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>7</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>2</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>12</v>
+      </c>
+      <c r="CV19" t="n">
         <v>6</v>
       </c>
-      <c r="BD19" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>44.444444444444</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>18</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ19" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="BR19" t="n">
-        <v>4</v>
-      </c>
-      <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
+      <c r="CW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ19" t="n">
         <v>15</v>
       </c>
-      <c r="BU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CD19" t="n">
+      <c r="DA19" t="n">
         <v>3</v>
       </c>
-      <c r="CE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ19" t="n">
-        <v>4</v>
-      </c>
-      <c r="CK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR19" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="CV19" t="n">
-        <v>5</v>
-      </c>
-      <c r="CW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>2</v>
-      </c>
       <c r="DB19" t="n">
-        <v>40</v>
+        <v>42.857142857143</v>
       </c>
       <c r="DC19" t="n">
         <v>0</v>
@@ -7396,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="DF19" t="n">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="DG19" t="n">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="DH19" t="n">
         <v>0</v>
@@ -7437,16 +7439,16 @@
         <v>1002920</v>
       </c>
       <c r="E20" t="n">
-        <v>6.5894736842105</v>
+        <v>6.585</v>
       </c>
       <c r="F20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G20" t="n">
         <v>17</v>
       </c>
       <c r="H20" t="n">
-        <v>1528</v>
+        <v>1553</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7458,7 +7460,7 @@
         <v>1.0473</v>
       </c>
       <c r="L20" t="n">
-        <v>1528</v>
+        <v>1553</v>
       </c>
       <c r="M20" t="n">
         <v>11</v>
@@ -7503,10 +7505,10 @@
         <v>2</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.01664594</v>
+        <v>1.02286875</v>
       </c>
       <c r="AB20" t="n">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="AC20" t="n">
         <v>2</v>
@@ -7515,34 +7517,34 @@
         <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="AF20" t="n">
-        <v>81.593927893738</v>
+        <v>82.037037037037</v>
       </c>
       <c r="AG20" t="n">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="AH20" t="n">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AI20" t="n">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="AJ20" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>31.25</v>
+        <v>35.294117647059</v>
       </c>
       <c r="AM20" t="n">
         <v>3</v>
       </c>
       <c r="AN20" t="n">
-        <v>11.111111111111</v>
+        <v>10.714285714286</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -7557,7 +7559,7 @@
         <v>62</v>
       </c>
       <c r="AS20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT20" t="n">
         <v>49</v>
@@ -7575,22 +7577,22 @@
         <v>0</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
-        <v>40</v>
+        <v>41.935483870968</v>
       </c>
       <c r="BA20" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BB20" t="n">
-        <v>52.910052910053</v>
+        <v>53.125</v>
       </c>
       <c r="BC20" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BD20" t="n">
-        <v>54.545454545455</v>
+        <v>54.794520547945</v>
       </c>
       <c r="BE20" t="n">
         <v>22</v>
@@ -7599,13 +7601,13 @@
         <v>47.826086956522</v>
       </c>
       <c r="BG20" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="BH20" t="n">
         <v>21</v>
       </c>
       <c r="BI20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BJ20" t="n">
         <v>0</v>
@@ -7623,16 +7625,16 @@
         <v>6</v>
       </c>
       <c r="BO20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>125.2</v>
+        <v>131.7</v>
       </c>
       <c r="BR20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS20" t="n">
         <v>3</v>
@@ -7665,10 +7667,10 @@
         <v>15</v>
       </c>
       <c r="CC20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="CD20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CE20" t="n">
         <v>1</v>
@@ -7686,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CK20" t="n">
         <v>1</v>
@@ -7713,13 +7715,13 @@
         <v>7</v>
       </c>
       <c r="CS20" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CT20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CU20" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="CV20" t="n">
         <v>24</v>
@@ -7734,7 +7736,7 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="DA20" t="n">
         <v>15</v>
@@ -7752,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="DG20" t="n">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7793,16 +7795,16 @@
         <v>282229</v>
       </c>
       <c r="E21" t="n">
-        <v>7</v>
+        <v>6.9909090909091</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -7811,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2028</v>
+        <v>0.2137</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -7859,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.63456158</v>
+        <v>0.65286088</v>
       </c>
       <c r="AB21" t="n">
-        <v>1449</v>
+        <v>1527</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7871,28 +7873,28 @@
         <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>1060</v>
+        <v>1117</v>
       </c>
       <c r="AF21" t="n">
-        <v>92.254134029591</v>
+        <v>92.466887417219</v>
       </c>
       <c r="AG21" t="n">
-        <v>1149</v>
+        <v>1208</v>
       </c>
       <c r="AH21" t="n">
-        <v>763</v>
+        <v>794</v>
       </c>
       <c r="AI21" t="n">
-        <v>297</v>
+        <v>323</v>
       </c>
       <c r="AJ21" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL21" t="n">
-        <v>56.666666666667</v>
+        <v>58.064516129032</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7901,22 +7903,22 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS21" t="n">
         <v>3</v>
       </c>
       <c r="AT21" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AU21" t="n">
         <v>2</v>
@@ -7934,34 +7936,34 @@
         <v>1</v>
       </c>
       <c r="AZ21" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BB21" t="n">
-        <v>62.5</v>
+        <v>61.538461538462</v>
       </c>
       <c r="BC21" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD21" t="n">
-        <v>71.153846153846</v>
+        <v>69.642857142857</v>
       </c>
       <c r="BE21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BF21" t="n">
-        <v>57.142857142857</v>
+        <v>56.32183908046</v>
       </c>
       <c r="BG21" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BH21" t="n">
         <v>12</v>
       </c>
       <c r="BI21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -7979,28 +7981,28 @@
         <v>8</v>
       </c>
       <c r="BO21" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>147</v>
+        <v>153.8</v>
       </c>
       <c r="BR21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
       </c>
       <c r="BV21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8015,16 +8017,16 @@
         <v>4</v>
       </c>
       <c r="CA21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CC21" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CD21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8042,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CK21" t="n">
         <v>1</v>
@@ -8069,16 +8071,16 @@
         <v>5</v>
       </c>
       <c r="CS21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CT21" t="n">
         <v>0</v>
       </c>
       <c r="CU21" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="CV21" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8090,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="DA21" t="n">
         <v>22</v>
       </c>
       <c r="DB21" t="n">
-        <v>78.571428571429</v>
+        <v>75.862068965517</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8108,16 +8110,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>804</v>
+        <v>835</v>
       </c>
       <c r="DG21" t="n">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="DH21" t="n">
         <v>24</v>
       </c>
       <c r="DI21" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="DJ21" t="n">
         <v>2169654</v>
@@ -8505,16 +8507,16 @@
         <v>1083382</v>
       </c>
       <c r="E23" t="n">
-        <v>6.45</v>
+        <v>6.4733333333333</v>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23" t="n">
-        <v>911</v>
+        <v>1001</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8523,13 +8525,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2328</v>
+        <v>0.3071</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N23" t="n">
         <v>2</v>
@@ -8571,46 +8573,46 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.26642737</v>
+        <v>1.28854897</v>
       </c>
       <c r="AB23" t="n">
-        <v>549</v>
+        <v>621</v>
       </c>
       <c r="AC23" t="n">
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AE23" t="n">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="AF23" t="n">
-        <v>78.378378378378</v>
+        <v>79.575596816976</v>
       </c>
       <c r="AG23" t="n">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="AH23" t="n">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="AI23" t="n">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="AJ23" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
       </c>
       <c r="AL23" t="n">
-        <v>29.268292682927</v>
+        <v>27.906976744186</v>
       </c>
       <c r="AM23" t="n">
         <v>8</v>
       </c>
       <c r="AN23" t="n">
-        <v>30.769230769231</v>
+        <v>26.666666666667</v>
       </c>
       <c r="AO23" t="n">
         <v>19</v>
@@ -8622,13 +8624,13 @@
         <v>1</v>
       </c>
       <c r="AR23" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS23" t="n">
         <v>8</v>
       </c>
       <c r="AT23" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AU23" t="n">
         <v>1</v>
@@ -8643,37 +8645,37 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BA23" t="n">
+        <v>44</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>51.162790697674</v>
+      </c>
+      <c r="BC23" t="n">
         <v>35</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>47.945205479452</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>31</v>
       </c>
       <c r="BD23" t="n">
         <v>50</v>
       </c>
       <c r="BE23" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BF23" t="n">
-        <v>36.363636363636</v>
+        <v>56.25</v>
       </c>
       <c r="BG23" t="n">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="BH23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BI23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BJ23" t="n">
         <v>0</v>
@@ -8691,28 +8693,28 @@
         <v>1</v>
       </c>
       <c r="BO23" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="BP23" t="n">
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>90.3</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="BR23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
       </c>
       <c r="BV23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BW23" t="n">
         <v>0</v>
@@ -8724,16 +8726,16 @@
         <v>0</v>
       </c>
       <c r="BZ23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CA23" t="n">
         <v>4</v>
       </c>
       <c r="CB23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC23" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="CD23" t="n">
         <v>20</v>
@@ -8754,7 +8756,7 @@
         <v>0</v>
       </c>
       <c r="CJ23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="CK23" t="n">
         <v>1</v>
@@ -8778,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="CR23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CS23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CT23" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="CU23" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CV23" t="n">
         <v>7</v>
@@ -8802,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="DA23" t="n">
         <v>9</v>
@@ -8820,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="DG23" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -9215,16 +9217,16 @@
         <v>578166</v>
       </c>
       <c r="E25" t="n">
-        <v>7.2904761904762</v>
+        <v>7.3227272727273</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H25" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -9279,10 +9281,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.0483338</v>
+        <v>0.04871233</v>
       </c>
       <c r="AB25" t="n">
-        <v>874</v>
+        <v>919</v>
       </c>
       <c r="AC25" t="n">
         <v>1</v>
@@ -9291,28 +9293,28 @@
         <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="AF25" t="n">
-        <v>71.644042232278</v>
+        <v>72.190201729107</v>
       </c>
       <c r="AG25" t="n">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="AH25" t="n">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="AI25" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AJ25" t="n">
         <v>26</v>
       </c>
       <c r="AK25" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AL25" t="n">
-        <v>42.857142857143</v>
+        <v>42.553191489362</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
@@ -9330,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -9357,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="BA25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
         <v>100</v>
@@ -9369,13 +9371,13 @@
         <v>100</v>
       </c>
       <c r="BE25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BF25" t="n">
         <v>100</v>
       </c>
       <c r="BG25" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
@@ -9393,28 +9395,28 @@
         <v>0</v>
       </c>
       <c r="BM25" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="BN25" t="n">
         <v>8</v>
       </c>
       <c r="BO25" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BP25" t="n">
         <v>0</v>
       </c>
       <c r="BQ25" t="n">
-        <v>153.1</v>
+        <v>161.1</v>
       </c>
       <c r="BR25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS25" t="n">
         <v>0</v>
       </c>
       <c r="BT25" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="BU25" t="n">
         <v>0</v>
@@ -9441,10 +9443,10 @@
         <v>0</v>
       </c>
       <c r="CC25" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CD25" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CE25" t="n">
         <v>0</v>
@@ -9456,13 +9458,13 @@
         <v>3</v>
       </c>
       <c r="CH25" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="CI25" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CJ25" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="CK25" t="n">
         <v>1</v>
@@ -9471,10 +9473,10 @@
         <v>6</v>
       </c>
       <c r="CM25" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN25" t="n">
         <v>6</v>
-      </c>
-      <c r="CN25" t="n">
-        <v>4</v>
       </c>
       <c r="CO25" t="n">
         <v>13</v>
@@ -9510,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="DA25" t="n">
         <v>1</v>
@@ -9528,13 +9530,13 @@
         <v>15</v>
       </c>
       <c r="DF25" t="n">
-        <v>448</v>
+        <v>475</v>
       </c>
       <c r="DG25" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="DH25" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="DI25" t="n">
         <v>0</v>
@@ -9548,7 +9550,7 @@
         </is>
       </c>
       <c r="DL25" t="n">
-        <v>2.0267</v>
+        <v>2.1457</v>
       </c>
     </row>
   </sheetData>
